--- a/city-metro-visualization/data/广州/metro_exchange_lines.xlsx
+++ b/city-metro-visualization/data/广州/metro_exchange_lines.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="300">
   <si>
     <t>station_name</t>
   </si>
@@ -43,6 +43,9 @@
     <t>三溪</t>
   </si>
   <si>
+    <t>上步</t>
+  </si>
+  <si>
     <t>世纪莲</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>京溪南方医院</t>
   </si>
   <si>
+    <t>亭岗</t>
+  </si>
+  <si>
     <t>人和</t>
   </si>
   <si>
@@ -136,6 +142,9 @@
     <t>华师</t>
   </si>
   <si>
+    <t>华林寺</t>
+  </si>
+  <si>
     <t>南岗</t>
   </si>
   <si>
@@ -169,6 +178,9 @@
     <t>同和</t>
   </si>
   <si>
+    <t>同德</t>
+  </si>
+  <si>
     <t>同济路</t>
   </si>
   <si>
@@ -280,6 +292,9 @@
     <t>小北</t>
   </si>
   <si>
+    <t>小坪</t>
+  </si>
+  <si>
     <t>山田</t>
   </si>
   <si>
@@ -466,6 +481,9 @@
     <t>滘口</t>
   </si>
   <si>
+    <t>滘心</t>
+  </si>
+  <si>
     <t>潭村</t>
   </si>
   <si>
@@ -511,12 +529,18 @@
     <t>知识城</t>
   </si>
   <si>
+    <t>石井</t>
+  </si>
+  <si>
     <t>石壁</t>
   </si>
   <si>
     <t>石溪</t>
   </si>
   <si>
+    <t>石潭</t>
+  </si>
+  <si>
     <t>石牌桥</t>
   </si>
   <si>
@@ -553,6 +577,9 @@
     <t>纪念堂</t>
   </si>
   <si>
+    <t>聚龙</t>
+  </si>
+  <si>
     <t>花地湾</t>
   </si>
   <si>
@@ -697,6 +724,9 @@
     <t>鱼珠</t>
   </si>
   <si>
+    <t>鹅掌坦</t>
+  </si>
+  <si>
     <t>鹤洞</t>
   </si>
   <si>
@@ -748,6 +778,9 @@
     <t>5号线</t>
   </si>
   <si>
+    <t>8号线</t>
+  </si>
+  <si>
     <t>广佛线</t>
   </si>
   <si>
@@ -760,9 +793,6 @@
     <t>14号线</t>
   </si>
   <si>
-    <t>8号线</t>
-  </si>
-  <si>
     <t>21号线</t>
   </si>
   <si>
@@ -872,6 +902,9 @@
   </si>
   <si>
     <t>14号线支线(知识城线),21号线</t>
+  </si>
+  <si>
+    <t>1号线,8号线</t>
   </si>
   <si>
     <t>3号线(北延段),9号线</t>
@@ -1238,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D2">
         <v>113.2572</v>
@@ -1286,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D3">
         <v>113.384796</v>
@@ -1303,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D4">
         <v>113.256851</v>
@@ -1320,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D5">
         <v>113.415784</v>
@@ -1337,13 +1370,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D6">
-        <v>113.114917</v>
+        <v>113.235759</v>
       </c>
       <c r="E6">
-        <v>22.965147</v>
+        <v>23.170978</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1354,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D7">
-        <v>113.401562</v>
+        <v>113.114917</v>
       </c>
       <c r="E7">
-        <v>23.109392</v>
+        <v>22.965147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1368,16 +1401,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D8">
-        <v>113.295373</v>
+        <v>113.401562</v>
       </c>
       <c r="E8">
-        <v>23.12398</v>
+        <v>23.109392</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1385,16 +1418,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D9">
-        <v>113.12919</v>
+        <v>113.295373</v>
       </c>
       <c r="E9">
-        <v>22.965266</v>
+        <v>23.12398</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1405,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D10">
-        <v>113.294174</v>
+        <v>113.12919</v>
       </c>
       <c r="E10">
-        <v>23.071333</v>
+        <v>22.965266</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1422,13 +1455,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D11">
-        <v>113.478928</v>
+        <v>113.294174</v>
       </c>
       <c r="E11">
-        <v>22.885635</v>
+        <v>23.071333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1439,13 +1472,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D12">
-        <v>113.288583</v>
+        <v>113.478928</v>
       </c>
       <c r="E12">
-        <v>23.115102</v>
+        <v>22.885635</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1456,13 +1489,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D13">
-        <v>113.600801</v>
+        <v>113.288583</v>
       </c>
       <c r="E13">
-        <v>23.566233</v>
+        <v>23.115102</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1473,13 +1506,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D14">
-        <v>113.292863</v>
+        <v>113.600801</v>
       </c>
       <c r="E14">
-        <v>23.092124</v>
+        <v>23.566233</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1490,13 +1523,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D15">
-        <v>113.232727</v>
+        <v>113.292863</v>
       </c>
       <c r="E15">
-        <v>23.126046</v>
+        <v>23.092124</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1507,13 +1540,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D16">
-        <v>113.613131</v>
+        <v>113.232727</v>
       </c>
       <c r="E16">
-        <v>23.285303</v>
+        <v>23.126046</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1524,13 +1557,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D17">
-        <v>113.351812</v>
+        <v>113.613131</v>
       </c>
       <c r="E17">
-        <v>23.152833</v>
+        <v>23.285303</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1541,13 +1574,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="D18">
-        <v>113.314249</v>
+        <v>113.351812</v>
       </c>
       <c r="E18">
-        <v>23.119843</v>
+        <v>23.152833</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1558,13 +1591,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D19">
-        <v>113.326126</v>
+        <v>113.314249</v>
       </c>
       <c r="E19">
-        <v>23.185225</v>
+        <v>23.119843</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1575,13 +1608,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D20">
-        <v>113.295995</v>
+        <v>113.326126</v>
       </c>
       <c r="E20">
-        <v>23.335224</v>
+        <v>23.185225</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1592,13 +1625,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D21">
-        <v>113.594721</v>
+        <v>113.219962</v>
       </c>
       <c r="E21">
-        <v>23.531769</v>
+        <v>23.222616</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1609,13 +1642,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="D22">
-        <v>113.286394</v>
+        <v>113.295995</v>
       </c>
       <c r="E22">
-        <v>23.013047</v>
+        <v>23.335224</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1626,13 +1659,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D23">
-        <v>113.484809</v>
+        <v>113.594721</v>
       </c>
       <c r="E23">
-        <v>22.919557</v>
+        <v>23.531769</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1646,10 +1679,10 @@
         <v>252</v>
       </c>
       <c r="D24">
-        <v>113.328376</v>
+        <v>113.286394</v>
       </c>
       <c r="E24">
-        <v>23.13497</v>
+        <v>23.013047</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1660,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D25">
-        <v>113.324309</v>
+        <v>113.484809</v>
       </c>
       <c r="E25">
-        <v>23.134281</v>
+        <v>22.919557</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1674,16 +1707,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D26">
-        <v>113.321503</v>
+        <v>113.328376</v>
       </c>
       <c r="E26">
-        <v>23.131138</v>
+        <v>23.13497</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1694,13 +1727,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D27">
-        <v>113.543688</v>
+        <v>113.324309</v>
       </c>
       <c r="E27">
-        <v>23.33119</v>
+        <v>23.134281</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1708,16 +1741,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D28">
-        <v>113.264315</v>
+        <v>113.321503</v>
       </c>
       <c r="E28">
-        <v>23.125446</v>
+        <v>23.131138</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1728,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D29">
-        <v>113.275602</v>
+        <v>113.543688</v>
       </c>
       <c r="E29">
-        <v>23.126623</v>
+        <v>23.33119</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1742,16 +1775,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D30">
-        <v>113.255994</v>
+        <v>113.264315</v>
       </c>
       <c r="E30">
-        <v>23.094705</v>
+        <v>23.125446</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1762,13 +1795,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D31">
-        <v>113.670634</v>
+        <v>113.275602</v>
       </c>
       <c r="E31">
-        <v>23.275961</v>
+        <v>23.126623</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1779,13 +1812,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D32">
-        <v>113.307291</v>
+        <v>113.255994</v>
       </c>
       <c r="E32">
-        <v>23.134503</v>
+        <v>23.094705</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1796,13 +1829,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D33">
-        <v>113.270268</v>
+        <v>113.670634</v>
       </c>
       <c r="E33">
-        <v>23.11873</v>
+        <v>23.275961</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1810,16 +1843,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D34">
-        <v>113.296725</v>
+        <v>113.307291</v>
       </c>
       <c r="E34">
-        <v>23.134483</v>
+        <v>23.134503</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1830,13 +1863,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D35">
-        <v>113.155356</v>
+        <v>113.270268</v>
       </c>
       <c r="E35">
-        <v>23.054818</v>
+        <v>23.11873</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1844,16 +1877,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="D36">
-        <v>113.345349</v>
+        <v>113.296725</v>
       </c>
       <c r="E36">
-        <v>23.140306</v>
+        <v>23.134483</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1864,13 +1897,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D37">
-        <v>113.541438</v>
+        <v>113.155356</v>
       </c>
       <c r="E37">
-        <v>23.095253</v>
+        <v>23.054818</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1881,13 +1914,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D38">
-        <v>113.347555</v>
+        <v>113.345349</v>
       </c>
       <c r="E38">
-        <v>23.004769</v>
+        <v>23.140306</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1898,13 +1931,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D39">
-        <v>113.154139</v>
+        <v>113.247287</v>
       </c>
       <c r="E39">
-        <v>23.034167</v>
+        <v>23.118082</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1915,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D40">
-        <v>113.594381</v>
+        <v>113.541438</v>
       </c>
       <c r="E40">
-        <v>22.747885</v>
+        <v>23.095253</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1932,13 +1965,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="D41">
-        <v>113.610968</v>
+        <v>113.347555</v>
       </c>
       <c r="E41">
-        <v>22.766988</v>
+        <v>23.004769</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1946,16 +1979,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D42">
-        <v>113.297367</v>
+        <v>113.154139</v>
       </c>
       <c r="E42">
-        <v>23.064799</v>
+        <v>23.034167</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1966,13 +1999,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D43">
-        <v>113.293154</v>
+        <v>113.594381</v>
       </c>
       <c r="E43">
-        <v>23.032929</v>
+        <v>22.747885</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1983,13 +2016,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D44">
-        <v>113.497434</v>
+        <v>113.610968</v>
       </c>
       <c r="E44">
-        <v>23.083718</v>
+        <v>22.766988</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1997,16 +2030,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D45">
-        <v>113.320837</v>
+        <v>113.297367</v>
       </c>
       <c r="E45">
-        <v>23.038007</v>
+        <v>23.064799</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2017,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D46">
-        <v>113.474331</v>
+        <v>113.293154</v>
       </c>
       <c r="E46">
-        <v>23.094468</v>
+        <v>23.032929</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2034,13 +2067,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="D47">
-        <v>113.326264</v>
+        <v>113.497434</v>
       </c>
       <c r="E47">
-        <v>23.19706</v>
+        <v>23.083718</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2051,13 +2084,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="D48">
-        <v>113.108503</v>
+        <v>113.320837</v>
       </c>
       <c r="E48">
-        <v>23.019222</v>
+        <v>23.038007</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2068,13 +2101,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="D49">
-        <v>113.252403</v>
+        <v>113.474331</v>
       </c>
       <c r="E49">
-        <v>23.101546</v>
+        <v>23.094468</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2085,13 +2118,13 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D50">
-        <v>113.365641</v>
+        <v>113.326264</v>
       </c>
       <c r="E50">
-        <v>23.015962</v>
+        <v>23.19706</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2099,16 +2132,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D51">
-        <v>113.363663</v>
+        <v>113.234705</v>
       </c>
       <c r="E51">
-        <v>23.115768</v>
+        <v>23.163525</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2116,16 +2149,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D52">
-        <v>113.289243</v>
+        <v>113.108503</v>
       </c>
       <c r="E52">
-        <v>23.23746</v>
+        <v>23.019222</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2136,13 +2169,13 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D53">
-        <v>113.278266</v>
+        <v>113.252403</v>
       </c>
       <c r="E53">
-        <v>23.118111</v>
+        <v>23.101546</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2153,13 +2186,13 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D54">
-        <v>113.232498</v>
+        <v>113.365641</v>
       </c>
       <c r="E54">
-        <v>23.078878</v>
+        <v>23.015962</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2167,16 +2200,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="D55">
-        <v>113.642606</v>
+        <v>113.363663</v>
       </c>
       <c r="E55">
-        <v>23.278769</v>
+        <v>23.115768</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2184,16 +2217,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D56">
-        <v>113.218387</v>
+        <v>113.289243</v>
       </c>
       <c r="E56">
-        <v>23.125234</v>
+        <v>23.23746</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2204,13 +2237,13 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D57">
-        <v>113.573064</v>
+        <v>113.278266</v>
       </c>
       <c r="E57">
-        <v>22.753098</v>
+        <v>23.118111</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2221,13 +2254,13 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D58">
-        <v>113.814472</v>
+        <v>113.232498</v>
       </c>
       <c r="E58">
-        <v>23.278024</v>
+        <v>23.078878</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2238,13 +2271,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D59">
-        <v>113.518376</v>
+        <v>113.642606</v>
       </c>
       <c r="E59">
-        <v>23.082901</v>
+        <v>23.278769</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2252,16 +2285,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="D60">
-        <v>113.323505</v>
+        <v>113.218387</v>
       </c>
       <c r="E60">
-        <v>23.277704</v>
+        <v>23.125234</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2272,13 +2305,13 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D61">
-        <v>113.32446</v>
+        <v>113.573064</v>
       </c>
       <c r="E61">
-        <v>23.116138</v>
+        <v>22.753098</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2289,13 +2322,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D62">
-        <v>113.321677</v>
+        <v>113.814472</v>
       </c>
       <c r="E62">
-        <v>23.077974</v>
+        <v>23.278024</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2306,13 +2339,13 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D63">
-        <v>113.385639</v>
+        <v>113.518376</v>
       </c>
       <c r="E63">
-        <v>23.058091</v>
+        <v>23.082901</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2320,16 +2353,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D64">
-        <v>113.400557</v>
+        <v>113.323505</v>
       </c>
       <c r="E64">
-        <v>23.043313</v>
+        <v>23.277704</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2340,13 +2373,13 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D65">
-        <v>113.458515</v>
+        <v>113.32446</v>
       </c>
       <c r="E65">
-        <v>23.106216</v>
+        <v>23.116138</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2357,13 +2390,13 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="D66">
-        <v>113.446074</v>
+        <v>113.321677</v>
       </c>
       <c r="E66">
-        <v>23.103227</v>
+        <v>23.077974</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2374,13 +2407,13 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D67">
-        <v>113.555975</v>
+        <v>113.385639</v>
       </c>
       <c r="E67">
-        <v>22.759076</v>
+        <v>23.058091</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2388,16 +2421,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="D68">
-        <v>113.321744</v>
+        <v>113.400557</v>
       </c>
       <c r="E68">
-        <v>23.017761</v>
+        <v>23.043313</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2408,13 +2441,13 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D69">
-        <v>113.406947</v>
+        <v>113.458515</v>
       </c>
       <c r="E69">
-        <v>23.144575</v>
+        <v>23.106216</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2425,13 +2458,13 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D70">
-        <v>113.321353</v>
+        <v>113.446074</v>
       </c>
       <c r="E70">
-        <v>23.159525</v>
+        <v>23.103227</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2442,13 +2475,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D71">
-        <v>113.362879</v>
+        <v>113.555975</v>
       </c>
       <c r="E71">
-        <v>23.125317</v>
+        <v>22.759076</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2459,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D72">
-        <v>113.324479</v>
+        <v>113.321744</v>
       </c>
       <c r="E72">
-        <v>23.131384</v>
+        <v>23.017761</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2473,16 +2506,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D73">
-        <v>113.3436</v>
+        <v>113.406947</v>
       </c>
       <c r="E73">
-        <v>23.171</v>
+        <v>23.144575</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2493,13 +2526,13 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D74">
-        <v>113.403184</v>
+        <v>113.321353</v>
       </c>
       <c r="E74">
-        <v>23.163275</v>
+        <v>23.159525</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2510,13 +2543,13 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D75">
-        <v>113.347197</v>
+        <v>113.362879</v>
       </c>
       <c r="E75">
-        <v>23.299284</v>
+        <v>23.125317</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2527,13 +2560,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D76">
-        <v>113.491955</v>
+        <v>113.324479</v>
       </c>
       <c r="E76">
-        <v>23.45209</v>
+        <v>23.131384</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2541,16 +2574,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="D77">
-        <v>113.231208</v>
+        <v>113.3436</v>
       </c>
       <c r="E77">
-        <v>23.114978</v>
+        <v>23.171</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2561,13 +2594,13 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D78">
-        <v>113.324558</v>
+        <v>113.403184</v>
       </c>
       <c r="E78">
-        <v>23.122553</v>
+        <v>23.163275</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2578,13 +2611,13 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D79">
-        <v>113.108547</v>
+        <v>113.347197</v>
       </c>
       <c r="E79">
-        <v>23.007104</v>
+        <v>23.299284</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2595,13 +2628,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D80">
-        <v>113.376846</v>
+        <v>113.491955</v>
       </c>
       <c r="E80">
-        <v>23.066862</v>
+        <v>23.45209</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2612,13 +2645,13 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D81">
-        <v>113.636569</v>
+        <v>113.231208</v>
       </c>
       <c r="E81">
-        <v>23.137226</v>
+        <v>23.114978</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2629,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D82">
-        <v>113.2697</v>
+        <v>113.324558</v>
       </c>
       <c r="E82">
-        <v>23.086027</v>
+        <v>23.122553</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2643,16 +2676,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D83">
-        <v>113.320331</v>
+        <v>113.108547</v>
       </c>
       <c r="E83">
-        <v>23.096197</v>
+        <v>23.007104</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2663,13 +2696,13 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D84">
-        <v>113.276905</v>
+        <v>113.376846</v>
       </c>
       <c r="E84">
-        <v>23.139424</v>
+        <v>23.066862</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2680,13 +2713,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="D85">
-        <v>113.744543</v>
+        <v>113.636569</v>
       </c>
       <c r="E85">
-        <v>23.276428</v>
+        <v>23.137226</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2697,13 +2730,13 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D86">
-        <v>113.339601</v>
+        <v>113.2697</v>
       </c>
       <c r="E86">
-        <v>23.13488</v>
+        <v>23.086027</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2711,16 +2744,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="D87">
-        <v>113.26989</v>
+        <v>113.320331</v>
       </c>
       <c r="E87">
-        <v>23.105996</v>
+        <v>23.096197</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2731,13 +2764,13 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D88">
-        <v>113.361726</v>
+        <v>113.276905</v>
       </c>
       <c r="E88">
-        <v>22.949743</v>
+        <v>23.139424</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2745,16 +2778,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D89">
-        <v>113.324851</v>
+        <v>113.243052</v>
       </c>
       <c r="E89">
-        <v>23.150968</v>
+        <v>23.200518</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2765,13 +2798,13 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D90">
-        <v>113.201568</v>
+        <v>113.744543</v>
       </c>
       <c r="E90">
-        <v>23.376419</v>
+        <v>23.276428</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2779,16 +2812,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D91">
-        <v>113.269125</v>
+        <v>113.339601</v>
       </c>
       <c r="E91">
-        <v>22.98898</v>
+        <v>23.13488</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2796,16 +2829,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D92">
-        <v>113.323618</v>
+        <v>113.26989</v>
       </c>
       <c r="E92">
-        <v>23.106375</v>
+        <v>23.105996</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2813,16 +2846,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D93">
-        <v>113.256603</v>
+        <v>113.361726</v>
       </c>
       <c r="E93">
-        <v>23.148143</v>
+        <v>22.949743</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2830,16 +2863,16 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="D94">
-        <v>113.540728</v>
+        <v>113.324851</v>
       </c>
       <c r="E94">
-        <v>22.772143</v>
+        <v>23.150968</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2850,13 +2883,13 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D95">
-        <v>113.490456</v>
+        <v>113.201568</v>
       </c>
       <c r="E95">
-        <v>22.866999</v>
+        <v>23.376419</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2864,16 +2897,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="D96">
-        <v>113.469004</v>
+        <v>113.269125</v>
       </c>
       <c r="E96">
-        <v>23.103796</v>
+        <v>22.98898</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2884,13 +2917,13 @@
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D97">
-        <v>113.248976</v>
+        <v>113.323618</v>
       </c>
       <c r="E97">
-        <v>23.109186</v>
+        <v>23.106375</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2898,16 +2931,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="D98">
-        <v>113.495228</v>
+        <v>113.256603</v>
       </c>
       <c r="E98">
-        <v>23.377232</v>
+        <v>23.148143</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2915,16 +2948,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D99">
-        <v>113.46706</v>
+        <v>113.540728</v>
       </c>
       <c r="E99">
-        <v>23.413259</v>
+        <v>22.772143</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2935,13 +2968,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D100">
-        <v>113.140008</v>
+        <v>113.490456</v>
       </c>
       <c r="E100">
-        <v>22.958653</v>
+        <v>22.866999</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2952,13 +2985,13 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D101">
-        <v>113.604472</v>
+        <v>113.469004</v>
       </c>
       <c r="E101">
-        <v>23.131731</v>
+        <v>23.103796</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2966,16 +2999,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="D102">
-        <v>113.649417</v>
+        <v>113.248976</v>
       </c>
       <c r="E102">
-        <v>23.136863</v>
+        <v>23.109186</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2986,13 +3019,13 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D103">
-        <v>113.35701</v>
+        <v>113.495228</v>
       </c>
       <c r="E103">
-        <v>23.098722</v>
+        <v>23.377232</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3000,16 +3033,16 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="D104">
-        <v>113.415714</v>
+        <v>113.46706</v>
       </c>
       <c r="E104">
-        <v>23.028182</v>
+        <v>23.413259</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3023,10 +3056,10 @@
         <v>255</v>
       </c>
       <c r="D105">
-        <v>113.551749</v>
+        <v>113.140008</v>
       </c>
       <c r="E105">
-        <v>23.323256</v>
+        <v>22.958653</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3034,16 +3067,16 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D106">
-        <v>113.276885</v>
+        <v>113.604472</v>
       </c>
       <c r="E106">
-        <v>23.090654</v>
+        <v>23.131731</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3054,13 +3087,13 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="D107">
-        <v>113.281883</v>
+        <v>113.649417</v>
       </c>
       <c r="E107">
-        <v>23.093066</v>
+        <v>23.136863</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3071,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D108">
-        <v>113.12224</v>
+        <v>113.35701</v>
       </c>
       <c r="E108">
-        <v>23.027678</v>
+        <v>23.098722</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3088,13 +3121,13 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D109">
-        <v>113.460177</v>
+        <v>113.415714</v>
       </c>
       <c r="E109">
-        <v>23.172296</v>
+        <v>23.028182</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3105,13 +3138,13 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="D110">
-        <v>113.133537</v>
+        <v>113.551749</v>
       </c>
       <c r="E110">
-        <v>23.027676</v>
+        <v>23.323256</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3119,16 +3152,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="D111">
-        <v>113.701415</v>
+        <v>113.276885</v>
       </c>
       <c r="E111">
-        <v>23.272316</v>
+        <v>23.090654</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3139,13 +3172,13 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D112">
-        <v>113.305659</v>
+        <v>113.281883</v>
       </c>
       <c r="E112">
-        <v>23.396197</v>
+        <v>23.093066</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3156,13 +3189,13 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D113">
-        <v>113.303048</v>
+        <v>113.12224</v>
       </c>
       <c r="E113">
-        <v>23.386627</v>
+        <v>23.027678</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3170,16 +3203,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="D114">
-        <v>113.308877</v>
+        <v>113.460177</v>
       </c>
       <c r="E114">
-        <v>23.128137</v>
+        <v>23.172296</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3190,13 +3223,13 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D115">
-        <v>113.388139</v>
+        <v>113.133537</v>
       </c>
       <c r="E115">
-        <v>23.016845</v>
+        <v>23.027676</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3204,16 +3237,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D116">
-        <v>113.323947</v>
+        <v>113.701415</v>
       </c>
       <c r="E116">
-        <v>23.141525</v>
+        <v>23.272316</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3224,13 +3257,13 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D117">
-        <v>113.508322</v>
+        <v>113.305659</v>
       </c>
       <c r="E117">
-        <v>23.363059</v>
+        <v>23.396197</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3241,13 +3274,13 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="D118">
-        <v>113.395991</v>
+        <v>113.303048</v>
       </c>
       <c r="E118">
-        <v>23.193462</v>
+        <v>23.386627</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3255,16 +3288,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="D119">
-        <v>113.141432</v>
+        <v>113.308877</v>
       </c>
       <c r="E119">
-        <v>23.031674</v>
+        <v>23.128137</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3275,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D120">
-        <v>113.320507</v>
+        <v>113.388139</v>
       </c>
       <c r="E120">
-        <v>23.175211</v>
+        <v>23.016845</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3289,16 +3322,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="D121">
-        <v>113.389329</v>
+        <v>113.323947</v>
       </c>
       <c r="E121">
-        <v>23.130979</v>
+        <v>23.141525</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3309,13 +3342,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="D122">
-        <v>113.365686</v>
+        <v>113.508322</v>
       </c>
       <c r="E122">
-        <v>23.190164</v>
+        <v>23.363059</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3326,13 +3359,13 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D123">
-        <v>113.206791</v>
+        <v>113.395991</v>
       </c>
       <c r="E123">
-        <v>23.158187</v>
+        <v>23.193462</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3343,13 +3376,13 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D124">
-        <v>113.479492</v>
+        <v>113.141432</v>
       </c>
       <c r="E124">
-        <v>23.186954</v>
+        <v>23.031674</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3360,13 +3393,13 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D125">
-        <v>113.306295</v>
+        <v>113.320507</v>
       </c>
       <c r="E125">
-        <v>23.220226</v>
+        <v>23.175211</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3374,16 +3407,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D126">
-        <v>113.33017</v>
+        <v>113.389329</v>
       </c>
       <c r="E126">
-        <v>22.992931</v>
+        <v>23.130979</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3394,13 +3427,13 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D127">
-        <v>113.273918</v>
+        <v>113.365686</v>
       </c>
       <c r="E127">
-        <v>23.097214</v>
+        <v>23.190164</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3411,13 +3444,13 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D128">
-        <v>113.283451</v>
+        <v>113.206791</v>
       </c>
       <c r="E128">
-        <v>23.211301</v>
+        <v>23.158187</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3428,13 +3461,13 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D129">
-        <v>113.28057</v>
+        <v>113.479492</v>
       </c>
       <c r="E129">
-        <v>23.082231</v>
+        <v>23.186954</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3445,13 +3478,13 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D130">
-        <v>113.564686</v>
+        <v>113.306295</v>
       </c>
       <c r="E130">
-        <v>23.307382</v>
+        <v>23.220226</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3462,13 +3495,13 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D131">
-        <v>113.260584</v>
+        <v>113.33017</v>
       </c>
       <c r="E131">
-        <v>23.088625</v>
+        <v>22.992931</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3479,13 +3512,13 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D132">
-        <v>113.570399</v>
+        <v>113.273918</v>
       </c>
       <c r="E132">
-        <v>23.11059</v>
+        <v>23.097214</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3496,13 +3529,13 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D133">
-        <v>113.306967</v>
+        <v>113.283451</v>
       </c>
       <c r="E133">
-        <v>23.147276</v>
+        <v>23.211301</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3513,13 +3546,13 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D134">
-        <v>113.246794</v>
+        <v>113.28057</v>
       </c>
       <c r="E134">
-        <v>23.083043</v>
+        <v>23.082231</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3530,13 +3563,13 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="D135">
-        <v>113.211397</v>
+        <v>113.564686</v>
       </c>
       <c r="E135">
-        <v>23.15243</v>
+        <v>23.307382</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3547,13 +3580,13 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D136">
-        <v>113.319077</v>
+        <v>113.260584</v>
       </c>
       <c r="E136">
-        <v>23.054898</v>
+        <v>23.088625</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3564,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D137">
-        <v>113.217405</v>
+        <v>113.570399</v>
       </c>
       <c r="E137">
-        <v>23.135576</v>
+        <v>23.11059</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3581,13 +3614,13 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D138">
-        <v>113.298665</v>
+        <v>113.306967</v>
       </c>
       <c r="E138">
-        <v>23.042896</v>
+        <v>23.147276</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3598,13 +3631,13 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D139">
-        <v>113.201941</v>
+        <v>113.246794</v>
       </c>
       <c r="E139">
-        <v>23.16411</v>
+        <v>23.083043</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3615,13 +3648,13 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D140">
-        <v>113.475343</v>
+        <v>113.211397</v>
       </c>
       <c r="E140">
-        <v>22.939563</v>
+        <v>23.15243</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3629,16 +3662,16 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="D141">
-        <v>113.324412</v>
+        <v>113.319077</v>
       </c>
       <c r="E141">
-        <v>23.111545</v>
+        <v>23.054898</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3646,16 +3679,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D142">
-        <v>113.265344</v>
+        <v>113.217405</v>
       </c>
       <c r="E142">
-        <v>23.114796</v>
+        <v>23.135576</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3666,13 +3699,13 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D143">
-        <v>113.286549</v>
+        <v>113.298665</v>
       </c>
       <c r="E143">
-        <v>23.136365</v>
+        <v>23.042896</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3683,13 +3716,13 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="D144">
-        <v>113.262858</v>
+        <v>113.201941</v>
       </c>
       <c r="E144">
-        <v>23.372206</v>
+        <v>23.16411</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3700,13 +3733,13 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D145">
-        <v>113.250989</v>
+        <v>113.475343</v>
       </c>
       <c r="E145">
-        <v>23.378122</v>
+        <v>22.939563</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3717,13 +3750,13 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D146">
-        <v>113.20844</v>
+        <v>113.324412</v>
       </c>
       <c r="E146">
-        <v>23.113796</v>
+        <v>23.111545</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3731,16 +3764,16 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="D147">
-        <v>113.345949</v>
+        <v>113.265344</v>
       </c>
       <c r="E147">
-        <v>23.117366</v>
+        <v>23.114796</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3751,13 +3784,13 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D148">
-        <v>113.107107</v>
+        <v>113.286549</v>
       </c>
       <c r="E148">
-        <v>22.983985</v>
+        <v>23.136365</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3768,13 +3801,13 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="D149">
-        <v>113.285663</v>
+        <v>113.262858</v>
       </c>
       <c r="E149">
-        <v>23.126704</v>
+        <v>23.372206</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3782,16 +3815,16 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D150">
-        <v>113.327132</v>
+        <v>113.250989</v>
       </c>
       <c r="E150">
-        <v>23.15998</v>
+        <v>23.378122</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3802,13 +3835,13 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D151">
-        <v>113.271988</v>
+        <v>113.20844</v>
       </c>
       <c r="E151">
-        <v>23.075142</v>
+        <v>23.113796</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3819,13 +3852,13 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D152">
-        <v>113.332105</v>
+        <v>113.216982</v>
       </c>
       <c r="E152">
-        <v>23.118539</v>
+        <v>23.236888</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3833,16 +3866,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="D153">
-        <v>113.321206</v>
+        <v>113.345949</v>
       </c>
       <c r="E153">
-        <v>23.119293</v>
+        <v>23.117366</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3853,13 +3886,13 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D154">
-        <v>113.3667</v>
+        <v>113.107107</v>
       </c>
       <c r="E154">
-        <v>23.098516</v>
+        <v>22.983985</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3870,13 +3903,13 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D155">
-        <v>113.385642</v>
+        <v>113.285663</v>
       </c>
       <c r="E155">
-        <v>22.935482</v>
+        <v>23.126704</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3884,16 +3917,16 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="D156">
-        <v>113.317841</v>
+        <v>113.327132</v>
       </c>
       <c r="E156">
-        <v>23.25117</v>
+        <v>23.15998</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3904,13 +3937,13 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D157">
-        <v>113.270966</v>
+        <v>113.271988</v>
       </c>
       <c r="E157">
-        <v>23.181613</v>
+        <v>23.075142</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3921,13 +3954,13 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D158">
-        <v>113.298178</v>
+        <v>113.332105</v>
       </c>
       <c r="E158">
-        <v>23.222382</v>
+        <v>23.118539</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3935,16 +3968,16 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="D159">
-        <v>113.275602</v>
+        <v>113.321206</v>
       </c>
       <c r="E159">
-        <v>23.189574</v>
+        <v>23.119293</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3955,13 +3988,13 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D160">
-        <v>113.595627</v>
+        <v>113.3667</v>
       </c>
       <c r="E160">
-        <v>23.123235</v>
+        <v>23.098516</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3972,13 +4005,13 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D161">
-        <v>113.525198</v>
+        <v>113.385642</v>
       </c>
       <c r="E161">
-        <v>23.349377</v>
+        <v>22.935482</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3986,16 +4019,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D162">
-        <v>113.277964</v>
+        <v>113.317841</v>
       </c>
       <c r="E162">
-        <v>22.994136</v>
+        <v>23.25117</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4006,13 +4039,13 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D163">
-        <v>113.285951</v>
+        <v>113.270966</v>
       </c>
       <c r="E163">
-        <v>23.067937</v>
+        <v>23.181613</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4023,13 +4056,13 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D164">
-        <v>113.332124</v>
+        <v>113.298178</v>
       </c>
       <c r="E164">
-        <v>23.133135</v>
+        <v>23.222382</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4040,13 +4073,13 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D165">
-        <v>113.465198</v>
+        <v>113.275602</v>
       </c>
       <c r="E165">
-        <v>22.957262</v>
+        <v>23.189574</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4057,13 +4090,13 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="D166">
-        <v>113.341285</v>
+        <v>113.595627</v>
       </c>
       <c r="E166">
-        <v>23.098689</v>
+        <v>23.123235</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4074,13 +4107,13 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="D167">
-        <v>113.155426</v>
+        <v>113.525198</v>
       </c>
       <c r="E167">
-        <v>23.042607</v>
+        <v>23.349377</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4091,13 +4124,13 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D168">
-        <v>113.112099</v>
+        <v>113.231799</v>
       </c>
       <c r="E168">
-        <v>23.027073</v>
+        <v>23.211101</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4105,16 +4138,16 @@
         <v>172</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="D169">
-        <v>113.517396</v>
+        <v>113.277964</v>
       </c>
       <c r="E169">
-        <v>23.475101</v>
+        <v>22.994136</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4125,13 +4158,13 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D170">
-        <v>113.431334</v>
+        <v>113.285951</v>
       </c>
       <c r="E170">
-        <v>23.165215</v>
+        <v>23.067937</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4142,13 +4175,13 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D171">
-        <v>113.44925</v>
+        <v>113.24101</v>
       </c>
       <c r="E171">
-        <v>23.165651</v>
+        <v>23.187843</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4159,13 +4192,13 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="D172">
-        <v>113.377215</v>
+        <v>113.332124</v>
       </c>
       <c r="E172">
-        <v>23.11928</v>
+        <v>23.133135</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4176,13 +4209,13 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D173">
-        <v>113.368332</v>
+        <v>113.465198</v>
       </c>
       <c r="E173">
-        <v>23.348496</v>
+        <v>22.957262</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4193,13 +4226,13 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D174">
-        <v>113.487415</v>
+        <v>113.341285</v>
       </c>
       <c r="E174">
-        <v>23.399261</v>
+        <v>23.098689</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4210,13 +4243,13 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D175">
-        <v>113.263431</v>
+        <v>113.155426</v>
       </c>
       <c r="E175">
-        <v>23.132179</v>
+        <v>23.042607</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4227,13 +4260,13 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D176">
-        <v>113.23403</v>
+        <v>113.112099</v>
       </c>
       <c r="E176">
-        <v>23.087055</v>
+        <v>23.027073</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4244,13 +4277,13 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D177">
-        <v>113.324718</v>
+        <v>113.517396</v>
       </c>
       <c r="E177">
-        <v>23.119223</v>
+        <v>23.475101</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4261,13 +4294,13 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D178">
-        <v>113.21274</v>
+        <v>113.431334</v>
       </c>
       <c r="E178">
-        <v>23.379622</v>
+        <v>23.165215</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4278,13 +4311,13 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D179">
-        <v>113.218389</v>
+        <v>113.44925</v>
       </c>
       <c r="E179">
-        <v>23.387119</v>
+        <v>23.165651</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4295,13 +4328,13 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D180">
-        <v>113.222628</v>
+        <v>113.377215</v>
       </c>
       <c r="E180">
-        <v>23.401307</v>
+        <v>23.11928</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4312,13 +4345,13 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D181">
-        <v>113.180367</v>
+        <v>113.368332</v>
       </c>
       <c r="E181">
-        <v>23.379671</v>
+        <v>23.348496</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4329,13 +4362,13 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D182">
-        <v>113.235703</v>
+        <v>113.487415</v>
       </c>
       <c r="E182">
-        <v>23.098592</v>
+        <v>23.399261</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4343,16 +4376,16 @@
         <v>186</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="D183">
-        <v>113.468482</v>
+        <v>113.263431</v>
       </c>
       <c r="E183">
-        <v>23.17097</v>
+        <v>23.132179</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4363,13 +4396,13 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D184">
-        <v>113.245149</v>
+        <v>113.238751</v>
       </c>
       <c r="E184">
-        <v>23.389101</v>
+        <v>23.181252</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4380,13 +4413,13 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D185">
-        <v>113.212863</v>
+        <v>113.23403</v>
       </c>
       <c r="E185">
-        <v>23.065868</v>
+        <v>23.087055</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4397,13 +4430,13 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="D186">
-        <v>113.481288</v>
+        <v>113.324718</v>
       </c>
       <c r="E186">
-        <v>23.175137</v>
+        <v>23.119223</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4414,13 +4447,13 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="D187">
-        <v>113.280697</v>
+        <v>113.21274</v>
       </c>
       <c r="E187">
-        <v>23.19858</v>
+        <v>23.379622</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4431,13 +4464,13 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D188">
-        <v>113.527502</v>
+        <v>113.218389</v>
       </c>
       <c r="E188">
-        <v>22.800704</v>
+        <v>23.387119</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4448,13 +4481,13 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D189">
-        <v>113.455011</v>
+        <v>113.222628</v>
       </c>
       <c r="E189">
-        <v>23.094934</v>
+        <v>23.401307</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4465,13 +4498,13 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="D190">
-        <v>113.238056</v>
+        <v>113.180367</v>
       </c>
       <c r="E190">
-        <v>23.137381</v>
+        <v>23.379671</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4479,16 +4512,16 @@
         <v>194</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D191">
-        <v>113.231978</v>
+        <v>113.235703</v>
       </c>
       <c r="E191">
-        <v>23.065437</v>
+        <v>23.098592</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4496,16 +4529,16 @@
         <v>195</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="D192">
-        <v>113.242019</v>
+        <v>113.468482</v>
       </c>
       <c r="E192">
-        <v>23.142012</v>
+        <v>23.17097</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4516,13 +4549,13 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="D193">
-        <v>113.25583</v>
+        <v>113.245149</v>
       </c>
       <c r="E193">
-        <v>23.125219</v>
+        <v>23.389101</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4533,13 +4566,13 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D194">
-        <v>113.295832</v>
+        <v>113.212863</v>
       </c>
       <c r="E194">
-        <v>22.990579</v>
+        <v>23.065868</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4550,13 +4583,13 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D195">
-        <v>113.334825</v>
+        <v>113.481288</v>
       </c>
       <c r="E195">
-        <v>23.096432</v>
+        <v>23.175137</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4567,13 +4600,13 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D196">
-        <v>113.560256</v>
+        <v>113.280697</v>
       </c>
       <c r="E196">
-        <v>23.50122</v>
+        <v>23.19858</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4584,13 +4617,13 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D197">
-        <v>113.261366</v>
+        <v>113.527502</v>
       </c>
       <c r="E197">
-        <v>23.140041</v>
+        <v>22.800704</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4601,13 +4634,13 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D198">
-        <v>113.395548</v>
+        <v>113.455011</v>
       </c>
       <c r="E198">
-        <v>23.124465</v>
+        <v>23.094934</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4615,16 +4648,16 @@
         <v>202</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="D199">
-        <v>113.389561</v>
+        <v>113.238056</v>
       </c>
       <c r="E199">
-        <v>23.11593</v>
+        <v>23.137381</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4632,16 +4665,16 @@
         <v>203</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="D200">
-        <v>113.526727</v>
+        <v>113.231978</v>
       </c>
       <c r="E200">
-        <v>23.249328</v>
+        <v>23.065437</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4652,13 +4685,13 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D201">
-        <v>113.451182</v>
+        <v>113.242019</v>
       </c>
       <c r="E201">
-        <v>23.181468</v>
+        <v>23.142012</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4669,13 +4702,13 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D202">
-        <v>113.538886</v>
+        <v>113.25583</v>
       </c>
       <c r="E202">
-        <v>22.792178</v>
+        <v>23.125219</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4686,13 +4719,13 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="D203">
-        <v>113.158548</v>
+        <v>113.295832</v>
       </c>
       <c r="E203">
-        <v>23.065814</v>
+        <v>22.990579</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4703,13 +4736,13 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D204">
-        <v>113.792047</v>
+        <v>113.334825</v>
       </c>
       <c r="E204">
-        <v>23.279317</v>
+        <v>23.096432</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4720,13 +4753,13 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D205">
-        <v>113.31698</v>
+        <v>113.560256</v>
       </c>
       <c r="E205">
-        <v>22.986437</v>
+        <v>23.50122</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4737,13 +4770,13 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D206">
-        <v>113.400686</v>
+        <v>113.261366</v>
       </c>
       <c r="E206">
-        <v>23.375649</v>
+        <v>23.140041</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4751,16 +4784,16 @@
         <v>210</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="D207">
-        <v>113.593</v>
+        <v>113.395548</v>
       </c>
       <c r="E207">
-        <v>23.284514</v>
+        <v>23.124465</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4768,16 +4801,16 @@
         <v>211</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="D208">
-        <v>113.576945</v>
+        <v>113.389561</v>
       </c>
       <c r="E208">
-        <v>23.289584</v>
+        <v>23.11593</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4788,13 +4821,13 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D209">
-        <v>113.573793</v>
+        <v>113.526727</v>
       </c>
       <c r="E209">
-        <v>23.278088</v>
+        <v>23.249328</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4805,13 +4838,13 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D210">
-        <v>113.242271</v>
+        <v>113.451182</v>
       </c>
       <c r="E210">
-        <v>23.118402</v>
+        <v>23.181468</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4822,13 +4855,13 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D211">
-        <v>113.489704</v>
+        <v>113.538886</v>
       </c>
       <c r="E211">
-        <v>23.210341</v>
+        <v>22.792178</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4839,13 +4872,13 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D212">
-        <v>113.349435</v>
+        <v>113.158548</v>
       </c>
       <c r="E212">
-        <v>23.178502</v>
+        <v>23.065814</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4856,13 +4889,13 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D213">
-        <v>113.246439</v>
+        <v>113.792047</v>
       </c>
       <c r="E213">
-        <v>23.125727</v>
+        <v>23.279317</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4873,13 +4906,13 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="D214">
-        <v>113.540758</v>
+        <v>113.31698</v>
       </c>
       <c r="E214">
-        <v>22.781854</v>
+        <v>22.986437</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4890,13 +4923,13 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="D215">
-        <v>113.263752</v>
+        <v>113.400686</v>
       </c>
       <c r="E215">
-        <v>23.168915</v>
+        <v>23.375649</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4904,16 +4937,16 @@
         <v>219</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="D216">
-        <v>113.155127</v>
+        <v>113.593</v>
       </c>
       <c r="E216">
-        <v>23.378345</v>
+        <v>23.284514</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4924,13 +4957,13 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="D217">
-        <v>113.501224</v>
+        <v>113.576945</v>
       </c>
       <c r="E217">
-        <v>23.172382</v>
+        <v>23.289584</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4941,13 +4974,13 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D218">
-        <v>113.450388</v>
+        <v>113.573793</v>
       </c>
       <c r="E218">
-        <v>23.393877</v>
+        <v>23.278088</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4958,13 +4991,13 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D219">
-        <v>113.237846</v>
+        <v>113.242271</v>
       </c>
       <c r="E219">
-        <v>23.399699</v>
+        <v>23.118402</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4975,13 +5008,13 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D220">
-        <v>113.410408</v>
+        <v>113.489704</v>
       </c>
       <c r="E220">
-        <v>23.191057</v>
+        <v>23.210341</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4989,16 +5022,16 @@
         <v>224</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="D221">
-        <v>113.295504</v>
+        <v>113.349435</v>
       </c>
       <c r="E221">
-        <v>23.355162</v>
+        <v>23.178502</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5006,16 +5039,16 @@
         <v>225</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="D222">
-        <v>113.108612</v>
+        <v>113.246439</v>
       </c>
       <c r="E222">
-        <v>22.993964</v>
+        <v>23.125727</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5023,16 +5056,16 @@
         <v>226</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="D223">
-        <v>113.432261</v>
+        <v>113.540758</v>
       </c>
       <c r="E223">
-        <v>23.100431</v>
+        <v>22.781854</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5043,13 +5076,13 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D224">
-        <v>113.240153</v>
+        <v>113.263752</v>
       </c>
       <c r="E224">
-        <v>23.072495</v>
+        <v>23.168915</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5060,13 +5093,13 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="D225">
-        <v>113.308219</v>
+        <v>113.155127</v>
       </c>
       <c r="E225">
-        <v>23.095331</v>
+        <v>23.378345</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5077,13 +5110,13 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D226">
-        <v>113.32449</v>
+        <v>113.501224</v>
       </c>
       <c r="E226">
-        <v>23.127054</v>
+        <v>23.172382</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5091,16 +5124,16 @@
         <v>230</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D227">
-        <v>113.407274</v>
+        <v>113.450388</v>
       </c>
       <c r="E227">
-        <v>23.131814</v>
+        <v>23.393877</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5108,16 +5141,16 @@
         <v>231</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D228">
-        <v>113.239856</v>
+        <v>113.237846</v>
       </c>
       <c r="E228">
-        <v>23.110524</v>
+        <v>23.399699</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5128,13 +5161,13 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D229">
-        <v>113.299907</v>
+        <v>113.410408</v>
       </c>
       <c r="E229">
-        <v>23.141128</v>
+        <v>23.191057</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5142,16 +5175,16 @@
         <v>233</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="D230">
-        <v>113.287376</v>
+        <v>113.295504</v>
       </c>
       <c r="E230">
-        <v>23.221645</v>
+        <v>23.355162</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5162,13 +5195,13 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D231">
-        <v>113.518768</v>
+        <v>113.108612</v>
       </c>
       <c r="E231">
-        <v>22.824736</v>
+        <v>22.993964</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5176,16 +5209,16 @@
         <v>235</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="D232">
-        <v>113.509719</v>
+        <v>113.432261</v>
       </c>
       <c r="E232">
-        <v>22.835812</v>
+        <v>23.100431</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5196,13 +5229,13 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D233">
-        <v>113.433738</v>
+        <v>113.235849</v>
       </c>
       <c r="E233">
-        <v>23.188379</v>
+        <v>23.156363</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5213,13 +5246,13 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D234">
-        <v>113.300834</v>
+        <v>113.240153</v>
       </c>
       <c r="E234">
-        <v>23.288736</v>
+        <v>23.072495</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5230,13 +5263,13 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D235">
-        <v>113.37752</v>
+        <v>113.308219</v>
       </c>
       <c r="E235">
-        <v>23.19096</v>
+        <v>23.095331</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5247,12 +5280,182 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
+        <v>263</v>
+      </c>
+      <c r="D236">
+        <v>113.32449</v>
+      </c>
+      <c r="E236">
+        <v>23.127054</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237" t="s">
+        <v>299</v>
+      </c>
+      <c r="D237">
+        <v>113.407274</v>
+      </c>
+      <c r="E237">
+        <v>23.131814</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238" t="s">
+        <v>256</v>
+      </c>
+      <c r="D238">
+        <v>113.239856</v>
+      </c>
+      <c r="E238">
+        <v>23.110524</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>250</v>
+      </c>
+      <c r="D239">
+        <v>113.299907</v>
+      </c>
+      <c r="E239">
+        <v>23.141128</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>252</v>
+      </c>
+      <c r="D240">
+        <v>113.287376</v>
+      </c>
+      <c r="E240">
+        <v>23.221645</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
         <v>244</v>
       </c>
-      <c r="D236">
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>257</v>
+      </c>
+      <c r="D241">
+        <v>113.518768</v>
+      </c>
+      <c r="E241">
+        <v>22.824736</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>257</v>
+      </c>
+      <c r="D242">
+        <v>113.509719</v>
+      </c>
+      <c r="E242">
+        <v>22.835812</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>250</v>
+      </c>
+      <c r="D243">
+        <v>113.433738</v>
+      </c>
+      <c r="E243">
+        <v>23.188379</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>261</v>
+      </c>
+      <c r="D244">
+        <v>113.300834</v>
+      </c>
+      <c r="E244">
+        <v>23.288736</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>250</v>
+      </c>
+      <c r="D245">
+        <v>113.37752</v>
+      </c>
+      <c r="E245">
+        <v>23.19096</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>255</v>
+      </c>
+      <c r="D246">
         <v>113.192391</v>
       </c>
-      <c r="E236">
+      <c r="E246">
         <v>23.066029</v>
       </c>
     </row>
